--- a/data/external/sp500_list.xlsx
+++ b/data/external/sp500_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15079efa5875ffcf/Masters/SIADS-697 Capstone Project III/Market Watch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15079efa5875ffcf/Masters/SIADS-697 Capstone Project III/market_watch2/data/external/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{534DB8E4-3C03-4CF6-879A-19321ED0B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A535D7D-2227-4D9A-A971-180F8A8C413B}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{534DB8E4-3C03-4CF6-879A-19321ED0B9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2501027-3428-4254-9FF7-5BFA673595A9}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F68F97DC-260F-4CB1-83AE-DE5EC3639528}"/>
   </bookViews>
@@ -1987,9 +1987,6 @@
     <t>GOOGL</t>
   </si>
   <si>
-    <t>Alphabet (Class A)</t>
-  </si>
-  <si>
     <t>GPC</t>
   </si>
   <si>
@@ -4352,6 +4349,9 @@
   </si>
   <si>
     <t>Fox Corporation</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
   </si>
 </sst>
 </file>
@@ -4755,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA52F14-4D01-42E2-823C-C7027B91EA03}">
   <dimension ref="A1:I505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5625,7 +5625,7 @@
         <v>119</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G30" s="4">
         <v>43623</v>
@@ -6174,7 +6174,7 @@
         <v>191</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G49" s="4">
         <v>39092</v>
@@ -6897,7 +6897,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G74" s="4">
         <v>34754</v>
@@ -10376,7 +10376,7 @@
         <v>611</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>11</v>
@@ -10778,7 +10778,7 @@
         <v>649</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>650</v>
+        <v>1430</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>11</v>
@@ -10804,10 +10804,10 @@
     </row>
     <row r="210" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>11</v>
@@ -10833,10 +10833,10 @@
     </row>
     <row r="211" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>11</v>
@@ -10862,10 +10862,10 @@
     </row>
     <row r="212" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>11</v>
@@ -10874,10 +10874,10 @@
         <v>22</v>
       </c>
       <c r="E212" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F212" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="G212" s="4">
         <v>41255</v>
@@ -10891,10 +10891,10 @@
     </row>
     <row r="213" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>11</v>
@@ -10903,7 +10903,7 @@
         <v>80</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>85</v>
@@ -10920,10 +10920,10 @@
     </row>
     <row r="214" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>11</v>
@@ -10935,7 +10935,7 @@
         <v>362</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G214" s="4">
         <v>29767</v>
@@ -10949,10 +10949,10 @@
     </row>
     <row r="215" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>11</v>
@@ -10978,10 +10978,10 @@
     </row>
     <row r="216" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>11</v>
@@ -10990,10 +10990,10 @@
         <v>22</v>
       </c>
       <c r="E216" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F216" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="G216" s="4">
         <v>30955</v>
@@ -11007,10 +11007,10 @@
     </row>
     <row r="217" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>11</v>
@@ -11022,7 +11022,7 @@
         <v>324</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G217" s="3"/>
       <c r="H217" s="3">
@@ -11034,10 +11034,10 @@
     </row>
     <row r="218" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>11</v>
@@ -11049,7 +11049,7 @@
         <v>496</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G218" s="4">
         <v>42031</v>
@@ -11063,10 +11063,10 @@
     </row>
     <row r="219" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>11</v>
@@ -11075,7 +11075,7 @@
         <v>22</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>432</v>
@@ -11092,10 +11092,10 @@
     </row>
     <row r="220" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>11</v>
@@ -11121,10 +11121,10 @@
     </row>
     <row r="221" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>11</v>
@@ -11150,10 +11150,10 @@
     </row>
     <row r="222" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>11</v>
@@ -11165,7 +11165,7 @@
         <v>210</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G222" s="4">
         <v>43103</v>
@@ -11179,10 +11179,10 @@
     </row>
     <row r="223" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>11</v>
@@ -11208,10 +11208,10 @@
     </row>
     <row r="224" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>11</v>
@@ -11223,7 +11223,7 @@
         <v>13</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G224" s="4">
         <v>42459</v>
@@ -11237,10 +11237,10 @@
     </row>
     <row r="225" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>11</v>
@@ -11266,10 +11266,10 @@
     </row>
     <row r="226" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>11</v>
@@ -11295,10 +11295,10 @@
     </row>
     <row r="227" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>11</v>
@@ -11310,7 +11310,7 @@
         <v>28</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G227" s="4">
         <v>27394</v>
@@ -11319,15 +11319,15 @@
         <v>47217</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>11</v>
@@ -11339,7 +11339,7 @@
         <v>277</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G228" s="4">
         <v>39876</v>
@@ -11353,10 +11353,10 @@
     </row>
     <row r="229" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>11</v>
@@ -11368,7 +11368,7 @@
         <v>37</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G229" s="4">
         <v>42080</v>
@@ -11382,10 +11382,10 @@
     </row>
     <row r="230" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
@@ -11394,10 +11394,10 @@
         <v>136</v>
       </c>
       <c r="E230" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="F230" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="G230" s="4">
         <v>39161</v>
@@ -11411,10 +11411,10 @@
     </row>
     <row r="231" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>11</v>
@@ -11426,7 +11426,7 @@
         <v>277</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G231" s="4">
         <v>20883</v>
@@ -11440,10 +11440,10 @@
     </row>
     <row r="232" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
@@ -11467,10 +11467,10 @@
     </row>
     <row r="233" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>11</v>
@@ -11482,7 +11482,7 @@
         <v>210</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G233" s="4">
         <v>23467</v>
@@ -11496,10 +11496,10 @@
     </row>
     <row r="234" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>11</v>
@@ -11511,7 +11511,7 @@
         <v>46</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G234" s="4">
         <v>20883</v>
@@ -11525,10 +11525,10 @@
     </row>
     <row r="235" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>11</v>
@@ -11554,10 +11554,10 @@
     </row>
     <row r="236" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>11</v>
@@ -11569,7 +11569,7 @@
         <v>13</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G236" s="4">
         <v>42740</v>
@@ -11583,10 +11583,10 @@
     </row>
     <row r="237" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>11</v>
@@ -11598,7 +11598,7 @@
         <v>362</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G237" s="4">
         <v>43686</v>
@@ -11612,10 +11612,10 @@
     </row>
     <row r="238" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>11</v>
@@ -11636,15 +11636,15 @@
         <v>51253</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>11</v>
@@ -11670,10 +11670,10 @@
     </row>
     <row r="240" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>11</v>
@@ -11699,10 +11699,10 @@
     </row>
     <row r="241" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>11</v>
@@ -11714,7 +11714,7 @@
         <v>518</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G241" s="4">
         <v>42888</v>
@@ -11728,10 +11728,10 @@
     </row>
     <row r="242" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>11</v>
@@ -11757,10 +11757,10 @@
     </row>
     <row r="243" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>11</v>
@@ -11786,10 +11786,10 @@
     </row>
     <row r="244" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>11</v>
@@ -11815,10 +11815,10 @@
     </row>
     <row r="245" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>11</v>
@@ -11827,7 +11827,7 @@
         <v>186</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>85</v>
@@ -11839,15 +11839,15 @@
         <v>51644</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>11</v>
@@ -11856,10 +11856,10 @@
         <v>27</v>
       </c>
       <c r="E246" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F246" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="G246" s="4">
         <v>43166</v>
@@ -11873,10 +11873,10 @@
     </row>
     <row r="247" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>11</v>
@@ -11888,7 +11888,7 @@
         <v>238</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G247" s="4">
         <v>42976</v>
@@ -11902,10 +11902,10 @@
     </row>
     <row r="248" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>11</v>
@@ -11917,7 +11917,7 @@
         <v>362</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G248" s="4">
         <v>43893</v>
@@ -11931,10 +11931,10 @@
     </row>
     <row r="249" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>11</v>
@@ -11960,10 +11960,10 @@
     </row>
     <row r="250" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>11</v>
@@ -11989,10 +11989,10 @@
     </row>
     <row r="251" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>11</v>
@@ -12018,10 +12018,10 @@
     </row>
     <row r="252" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>11</v>
@@ -12033,7 +12033,7 @@
         <v>362</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G252" s="4">
         <v>31471</v>
@@ -12047,10 +12047,10 @@
     </row>
     <row r="253" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>11</v>
@@ -12076,10 +12076,10 @@
     </row>
     <row r="254" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>11</v>
@@ -12088,7 +12088,7 @@
         <v>17</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>183</v>
@@ -12105,10 +12105,10 @@
     </row>
     <row r="255" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>11</v>
@@ -12117,10 +12117,10 @@
         <v>17</v>
       </c>
       <c r="E255" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F255" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="G255" s="4">
         <v>42186</v>
@@ -12134,10 +12134,10 @@
     </row>
     <row r="256" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>11</v>
@@ -12149,7 +12149,7 @@
         <v>113</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G256" s="4">
         <v>40417</v>
@@ -12163,10 +12163,10 @@
     </row>
     <row r="257" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>11</v>
@@ -12178,7 +12178,7 @@
         <v>61</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G257" s="4">
         <v>43417</v>
@@ -12192,10 +12192,10 @@
     </row>
     <row r="258" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>11</v>
@@ -12207,7 +12207,7 @@
         <v>32</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G258" s="4">
         <v>26845</v>
@@ -12221,10 +12221,10 @@
     </row>
     <row r="259" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>783</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>11</v>
@@ -12250,10 +12250,10 @@
     </row>
     <row r="260" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>11</v>
@@ -12274,15 +12274,15 @@
         <v>19617</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>11</v>
@@ -12294,7 +12294,7 @@
         <v>277</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G261" s="4">
         <v>32762</v>
@@ -12308,10 +12308,10 @@
     </row>
     <row r="262" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>11</v>
@@ -12323,7 +12323,7 @@
         <v>324</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G262" s="4">
         <v>34394</v>
@@ -12337,10 +12337,10 @@
     </row>
     <row r="263" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>11</v>
@@ -12349,10 +12349,10 @@
         <v>27</v>
       </c>
       <c r="E263" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F263" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="G263" s="4">
         <v>43410</v>
@@ -12366,10 +12366,10 @@
     </row>
     <row r="264" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>11</v>
@@ -12381,7 +12381,7 @@
         <v>277</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G264" s="4">
         <v>42191</v>
@@ -12390,15 +12390,15 @@
         <v>1637459</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>11</v>
@@ -12410,7 +12410,7 @@
         <v>616</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G265" s="4">
         <v>38811</v>
@@ -12424,10 +12424,10 @@
     </row>
     <row r="266" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>11</v>
@@ -12439,22 +12439,22 @@
         <v>116</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G266" s="3"/>
       <c r="H266" s="3">
         <v>319201</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>11</v>
@@ -12480,10 +12480,10 @@
     </row>
     <row r="268" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>11</v>
@@ -12492,7 +12492,7 @@
         <v>162</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>164</v>
@@ -12509,10 +12509,10 @@
     </row>
     <row r="269" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>11</v>
@@ -12538,10 +12538,10 @@
     </row>
     <row r="270" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>11</v>
@@ -12550,7 +12550,7 @@
         <v>57</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>432</v>
@@ -12567,10 +12567,10 @@
     </row>
     <row r="271" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>11</v>
@@ -12579,7 +12579,7 @@
         <v>57</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>606</v>
@@ -12596,10 +12596,10 @@
     </row>
     <row r="272" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>11</v>
@@ -12623,10 +12623,10 @@
     </row>
     <row r="273" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>11</v>
@@ -12638,7 +12638,7 @@
         <v>387</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G273" s="4">
         <v>43686</v>
@@ -12652,10 +12652,10 @@
     </row>
     <row r="274" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>11</v>
@@ -12681,10 +12681,10 @@
     </row>
     <row r="275" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>11</v>
@@ -12696,7 +12696,7 @@
         <v>418</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G275" s="4">
         <v>38292</v>
@@ -12710,10 +12710,10 @@
     </row>
     <row r="276" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>11</v>
@@ -12725,7 +12725,7 @@
         <v>210</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G276" s="4">
         <v>39713</v>
@@ -12734,15 +12734,15 @@
         <v>202058</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>11</v>
@@ -12754,7 +12754,7 @@
         <v>167</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G277" s="4">
         <v>33786</v>
@@ -12768,10 +12768,10 @@
     </row>
     <row r="278" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>11</v>
@@ -12780,7 +12780,7 @@
         <v>22</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>59</v>
@@ -12797,10 +12797,10 @@
     </row>
     <row r="279" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>841</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>11</v>
@@ -12826,10 +12826,10 @@
     </row>
     <row r="280" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>11</v>
@@ -12841,7 +12841,7 @@
         <v>210</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G280" s="4">
         <v>30894</v>
@@ -12855,10 +12855,10 @@
     </row>
     <row r="281" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>11</v>
@@ -12870,7 +12870,7 @@
         <v>88</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G281" s="4">
         <v>27941</v>
@@ -12884,10 +12884,10 @@
     </row>
     <row r="282" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>11</v>
@@ -12899,7 +12899,7 @@
         <v>73</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G282" s="4">
         <v>42552</v>
@@ -12913,10 +12913,10 @@
     </row>
     <row r="283" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>851</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>11</v>
@@ -12925,10 +12925,10 @@
         <v>22</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G283" s="4">
         <v>30741</v>
@@ -12937,15 +12937,15 @@
         <v>60667</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>855</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>11</v>
@@ -12971,10 +12971,10 @@
     </row>
     <row r="285" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>11</v>
@@ -12983,10 +12983,10 @@
         <v>186</v>
       </c>
       <c r="E285" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F285" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>859</v>
       </c>
       <c r="G285" s="4">
         <v>36244</v>
@@ -12995,15 +12995,15 @@
         <v>18926</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>11</v>
@@ -13029,10 +13029,10 @@
     </row>
     <row r="287" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>11</v>
@@ -13044,7 +13044,7 @@
         <v>425</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G287" s="4">
         <v>43741</v>
@@ -13058,10 +13058,10 @@
     </row>
     <row r="288" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>11</v>
@@ -13073,7 +13073,7 @@
         <v>277</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G288" s="4">
         <v>43437</v>
@@ -13082,15 +13082,15 @@
         <v>1679273</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>871</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>11</v>
@@ -13102,7 +13102,7 @@
         <v>100</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G289" s="4">
         <v>41157</v>
@@ -13116,10 +13116,10 @@
     </row>
     <row r="290" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>874</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>11</v>
@@ -13131,7 +13131,7 @@
         <v>458</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G290" s="4">
         <v>43822</v>
@@ -13145,10 +13145,10 @@
     </row>
     <row r="291" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>11</v>
@@ -13160,7 +13160,7 @@
         <v>61</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G291" s="4">
         <v>39647</v>
@@ -13174,10 +13174,10 @@
     </row>
     <row r="292" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>11</v>
@@ -13203,10 +13203,10 @@
     </row>
     <row r="293" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>11</v>
@@ -13218,7 +13218,7 @@
         <v>300</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G293" s="3"/>
       <c r="H293" s="3">
@@ -13230,10 +13230,10 @@
     </row>
     <row r="294" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>11</v>
@@ -13245,7 +13245,7 @@
         <v>113</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G294" s="4">
         <v>29767</v>
@@ -13259,10 +13259,10 @@
     </row>
     <row r="295" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>887</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>11</v>
@@ -13288,10 +13288,10 @@
     </row>
     <row r="296" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>889</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>11</v>
@@ -13303,7 +13303,7 @@
         <v>54</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G296" s="4">
         <v>39332</v>
@@ -13317,10 +13317,10 @@
     </row>
     <row r="297" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>11</v>
@@ -13344,10 +13344,10 @@
     </row>
     <row r="298" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>11</v>
@@ -13371,10 +13371,10 @@
     </row>
     <row r="299" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>11</v>
@@ -13400,10 +13400,10 @@
     </row>
     <row r="300" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>11</v>
@@ -13429,10 +13429,10 @@
     </row>
     <row r="301" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>900</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>11</v>
@@ -13456,10 +13456,10 @@
     </row>
     <row r="302" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>11</v>
@@ -13471,7 +13471,7 @@
         <v>425</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G302" s="4">
         <v>42942</v>
@@ -13485,10 +13485,10 @@
     </row>
     <row r="303" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>904</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>905</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>11</v>
@@ -13497,10 +13497,10 @@
         <v>22</v>
       </c>
       <c r="E303" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="F303" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>907</v>
       </c>
       <c r="G303" s="4">
         <v>41631</v>
@@ -13514,10 +13514,10 @@
     </row>
     <row r="304" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>11</v>
@@ -13529,7 +13529,7 @@
         <v>277</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G304" s="4">
         <v>37700</v>
@@ -13543,10 +13543,10 @@
     </row>
     <row r="305" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>11</v>
@@ -13572,10 +13572,10 @@
     </row>
     <row r="306" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>11</v>
@@ -13584,7 +13584,7 @@
         <v>99</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>24</v>
@@ -13601,10 +13601,10 @@
     </row>
     <row r="307" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>11</v>
@@ -13630,10 +13630,10 @@
     </row>
     <row r="308" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>11</v>
@@ -13659,10 +13659,10 @@
     </row>
     <row r="309" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>921</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>11</v>
@@ -13671,10 +13671,10 @@
         <v>57</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G309" s="4">
         <v>41088</v>
@@ -13683,15 +13683,15 @@
         <v>865752</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>11</v>
@@ -13700,7 +13700,7 @@
         <v>57</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>429</v>
@@ -13717,10 +13717,10 @@
     </row>
     <row r="311" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>11</v>
@@ -13732,7 +13732,7 @@
         <v>321</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G311" s="4">
         <v>40812</v>
@@ -13741,15 +13741,15 @@
         <v>1285785</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>931</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>932</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>11</v>
@@ -13758,10 +13758,10 @@
         <v>162</v>
       </c>
       <c r="E312" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="F312" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>934</v>
       </c>
       <c r="G312" s="4">
         <v>40725</v>
@@ -13770,15 +13770,15 @@
         <v>1510295</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>937</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>11</v>
@@ -13790,7 +13790,7 @@
         <v>54</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G313" s="4">
         <v>44239</v>
@@ -13804,10 +13804,10 @@
     </row>
     <row r="314" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>11</v>
@@ -13819,7 +13819,7 @@
         <v>32</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G314" s="4">
         <v>20883</v>
@@ -13833,10 +13833,10 @@
     </row>
     <row r="315" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>11</v>
@@ -13862,10 +13862,10 @@
     </row>
     <row r="316" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>11</v>
@@ -13891,10 +13891,10 @@
     </row>
     <row r="317" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>11</v>
@@ -13903,7 +13903,7 @@
         <v>80</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>85</v>
@@ -13918,10 +13918,10 @@
     </row>
     <row r="318" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>11</v>
@@ -13947,10 +13947,10 @@
     </row>
     <row r="319" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>11</v>
@@ -13962,7 +13962,7 @@
         <v>620</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G319" s="4">
         <v>34486</v>
@@ -13976,10 +13976,10 @@
     </row>
     <row r="320" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>952</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>953</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>11</v>
@@ -13998,15 +13998,15 @@
         <v>68505</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>11</v>
@@ -14018,7 +14018,7 @@
         <v>324</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G321" s="4">
         <v>38040</v>
@@ -14032,10 +14032,10 @@
     </row>
     <row r="322" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>959</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>11</v>
@@ -14061,10 +14061,10 @@
     </row>
     <row r="323" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>960</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>961</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>11</v>
@@ -14090,10 +14090,10 @@
     </row>
     <row r="324" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>11</v>
@@ -14105,7 +14105,7 @@
         <v>54</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G324" s="4">
         <v>34604</v>
@@ -14119,10 +14119,10 @@
     </row>
     <row r="325" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>11</v>
@@ -14143,15 +14143,15 @@
         <v>1513761</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>968</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>969</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>11</v>
@@ -14177,10 +14177,10 @@
     </row>
     <row r="327" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>971</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>11</v>
@@ -14192,7 +14192,7 @@
         <v>362</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G327" s="4">
         <v>44607</v>
@@ -14206,10 +14206,10 @@
     </row>
     <row r="328" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>11</v>
@@ -14221,7 +14221,7 @@
         <v>69</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G328" s="4">
         <v>27941</v>
@@ -14230,15 +14230,15 @@
         <v>753308</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>11</v>
@@ -14247,7 +14247,7 @@
         <v>99</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>497</v>
@@ -14264,10 +14264,10 @@
     </row>
     <row r="330" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>11</v>
@@ -14279,7 +14279,7 @@
         <v>458</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G330" s="4">
         <v>40532</v>
@@ -14293,10 +14293,10 @@
     </row>
     <row r="331" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>11</v>
@@ -14308,7 +14308,7 @@
         <v>69</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G331" s="3"/>
       <c r="H331" s="3">
@@ -14320,10 +14320,10 @@
     </row>
     <row r="332" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>987</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>11</v>
@@ -14332,10 +14332,10 @@
         <v>22</v>
       </c>
       <c r="E332" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F332" s="2" t="s">
         <v>988</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>989</v>
       </c>
       <c r="G332" s="4">
         <v>32477</v>
@@ -14349,10 +14349,10 @@
     </row>
     <row r="333" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>991</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>11</v>
@@ -14364,7 +14364,7 @@
         <v>50</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G333" s="4">
         <v>37705</v>
@@ -14378,10 +14378,10 @@
     </row>
     <row r="334" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>993</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>994</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>11</v>
@@ -14407,10 +14407,10 @@
     </row>
     <row r="335" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>11</v>
@@ -14422,7 +14422,7 @@
         <v>210</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G335" s="4">
         <v>31228</v>
@@ -14431,15 +14431,15 @@
         <v>1133421</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>11</v>
@@ -14465,10 +14465,10 @@
     </row>
     <row r="337" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>1002</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>11</v>
@@ -14494,10 +14494,10 @@
     </row>
     <row r="338" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>11</v>
@@ -14509,7 +14509,7 @@
         <v>396</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G338" s="4">
         <v>20883</v>
@@ -14518,15 +14518,15 @@
         <v>702165</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>1008</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>11</v>
@@ -14552,10 +14552,10 @@
     </row>
     <row r="340" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>1009</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>1010</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>11</v>
@@ -14579,10 +14579,10 @@
     </row>
     <row r="341" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>1012</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>11</v>
@@ -14591,7 +14591,7 @@
         <v>99</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>101</v>
@@ -14608,10 +14608,10 @@
     </row>
     <row r="342" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>1014</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>1015</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>11</v>
@@ -14637,10 +14637,10 @@
     </row>
     <row r="343" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>11</v>
@@ -14652,7 +14652,7 @@
         <v>451</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G343" s="4">
         <v>43734</v>
@@ -14666,10 +14666,10 @@
     </row>
     <row r="344" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B344" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>1018</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>11</v>
@@ -14678,7 +14678,7 @@
         <v>22</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>432</v>
@@ -14695,10 +14695,10 @@
     </row>
     <row r="345" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B345" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>11</v>
@@ -14707,7 +14707,7 @@
         <v>186</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>85</v>
@@ -14719,15 +14719,15 @@
         <v>1564708</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B346" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>1025</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>11</v>
@@ -14736,7 +14736,7 @@
         <v>186</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>85</v>
@@ -14748,15 +14748,15 @@
         <v>1564708</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B347" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>11</v>
@@ -14768,7 +14768,7 @@
         <v>54</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G347" s="4">
         <v>44277</v>
@@ -14782,10 +14782,10 @@
     </row>
     <row r="348" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>1030</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>11</v>
@@ -14811,10 +14811,10 @@
     </row>
     <row r="349" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>1031</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>1032</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>11</v>
@@ -14823,10 +14823,10 @@
         <v>17</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G349" s="4">
         <v>43808</v>
@@ -14840,10 +14840,10 @@
     </row>
     <row r="350" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>11</v>
@@ -14855,7 +14855,7 @@
         <v>32</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G350" s="4">
         <v>44350</v>
@@ -14869,10 +14869,10 @@
     </row>
     <row r="351" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B351" s="2" t="s">
         <v>1037</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>1038</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>11</v>
@@ -14881,10 +14881,10 @@
         <v>162</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G351" s="4">
         <v>40252</v>
@@ -14898,10 +14898,10 @@
     </row>
     <row r="352" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>1041</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>11</v>
@@ -14910,7 +14910,7 @@
         <v>186</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>85</v>
@@ -14925,10 +14925,10 @@
     </row>
     <row r="353" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>1043</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>11</v>
@@ -14954,10 +14954,10 @@
     </row>
     <row r="354" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>1044</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>1045</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>11</v>
@@ -14969,7 +14969,7 @@
         <v>206</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G354" s="4">
         <v>39899</v>
@@ -14983,10 +14983,10 @@
     </row>
     <row r="355" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>1048</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>11</v>
@@ -14998,7 +14998,7 @@
         <v>362</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G355" s="4">
         <v>43924</v>
@@ -15007,15 +15007,15 @@
         <v>1781335</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>1052</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>11</v>
@@ -15041,10 +15041,10 @@
     </row>
     <row r="357" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B357" s="2" t="s">
         <v>1053</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>1054</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>11</v>
@@ -15070,10 +15070,10 @@
     </row>
     <row r="358" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B358" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>1056</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>11</v>
@@ -15085,7 +15085,7 @@
         <v>61</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G358" s="3"/>
       <c r="H358" s="3">
@@ -15097,10 +15097,10 @@
     </row>
     <row r="359" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B359" s="2" t="s">
         <v>1058</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>1059</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>11</v>
@@ -15109,10 +15109,10 @@
         <v>80</v>
       </c>
       <c r="E359" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F359" s="2" t="s">
         <v>1060</v>
-      </c>
-      <c r="F359" s="2" t="s">
-        <v>1061</v>
       </c>
       <c r="G359" s="4">
         <v>39765</v>
@@ -15126,10 +15126,10 @@
     </row>
     <row r="360" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>1062</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>1063</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>11</v>
@@ -15141,7 +15141,7 @@
         <v>287</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G360" s="4">
         <v>29586</v>
@@ -15155,10 +15155,10 @@
     </row>
     <row r="361" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>1066</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>11</v>
@@ -15167,10 +15167,10 @@
         <v>136</v>
       </c>
       <c r="E361" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F361" s="2" t="s">
         <v>1067</v>
-      </c>
-      <c r="F361" s="2" t="s">
-        <v>1068</v>
       </c>
       <c r="G361" s="4">
         <v>39538</v>
@@ -15184,10 +15184,10 @@
     </row>
     <row r="362" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>1070</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>11</v>
@@ -15199,7 +15199,7 @@
         <v>73</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G362" s="4">
         <v>20883</v>
@@ -15213,10 +15213,10 @@
     </row>
     <row r="363" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>1073</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>11</v>
@@ -15228,7 +15228,7 @@
         <v>425</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G363" s="4">
         <v>44277</v>
@@ -15242,10 +15242,10 @@
     </row>
     <row r="364" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>11</v>
@@ -15254,10 +15254,10 @@
         <v>57</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G364" s="4">
         <v>20883</v>
@@ -15271,10 +15271,10 @@
     </row>
     <row r="365" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>1078</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>1079</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>11</v>
@@ -15300,10 +15300,10 @@
     </row>
     <row r="366" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>1080</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>1081</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>11</v>
@@ -15315,7 +15315,7 @@
         <v>81</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G366" s="4">
         <v>37459</v>
@@ -15329,10 +15329,10 @@
     </row>
     <row r="367" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>11</v>
@@ -15358,10 +15358,10 @@
     </row>
     <row r="368" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>1085</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>1086</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>11</v>
@@ -15373,7 +15373,7 @@
         <v>84</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G368" s="4">
         <v>35646</v>
@@ -15387,10 +15387,10 @@
     </row>
     <row r="369" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>1088</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>1089</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>11</v>
@@ -15402,7 +15402,7 @@
         <v>362</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G369" s="4">
         <v>31381</v>
@@ -15416,10 +15416,10 @@
     </row>
     <row r="370" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>1090</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>1091</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>11</v>
@@ -15445,10 +15445,10 @@
     </row>
     <row r="371" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>1092</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>1093</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>11</v>
@@ -15460,7 +15460,7 @@
         <v>119</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G371" s="4">
         <v>42942</v>
@@ -15474,10 +15474,10 @@
     </row>
     <row r="372" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B372" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>11</v>
@@ -15489,7 +15489,7 @@
         <v>13</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G372" s="4">
         <v>31198</v>
@@ -15503,10 +15503,10 @@
     </row>
     <row r="373" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>1097</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>1098</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>11</v>
@@ -15532,10 +15532,10 @@
     </row>
     <row r="374" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>1099</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>1100</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>11</v>
@@ -15544,7 +15544,7 @@
         <v>57</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>85</v>
@@ -15556,15 +15556,15 @@
         <v>1413329</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>1103</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>11</v>
@@ -15576,7 +15576,7 @@
         <v>324</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G375" s="4">
         <v>32263</v>
@@ -15590,10 +15590,10 @@
     </row>
     <row r="376" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>1104</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>1105</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>11</v>
@@ -15605,7 +15605,7 @@
         <v>362</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G376" s="4">
         <v>41183</v>
@@ -15619,10 +15619,10 @@
     </row>
     <row r="377" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>1107</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>1108</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>11</v>
@@ -15646,10 +15646,10 @@
     </row>
     <row r="378" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>1110</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>11</v>
@@ -15658,10 +15658,10 @@
         <v>22</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G378" s="4">
         <v>44111</v>
@@ -15675,10 +15675,10 @@
     </row>
     <row r="379" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>1112</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>1113</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>11</v>
@@ -15690,7 +15690,7 @@
         <v>100</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G379" s="4">
         <v>20883</v>
@@ -15704,10 +15704,10 @@
     </row>
     <row r="380" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>11</v>
@@ -15731,10 +15731,10 @@
     </row>
     <row r="381" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>1116</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>11</v>
@@ -15746,7 +15746,7 @@
         <v>81</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G381" s="4">
         <v>37459</v>
@@ -15760,10 +15760,10 @@
     </row>
     <row r="382" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>1117</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>1118</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>11</v>
@@ -15789,10 +15789,10 @@
     </row>
     <row r="383" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>1120</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>11</v>
@@ -15801,7 +15801,7 @@
         <v>162</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>164</v>
@@ -15813,15 +15813,15 @@
         <v>1534701</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>11</v>
@@ -15847,10 +15847,10 @@
     </row>
     <row r="385" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>11</v>
@@ -15859,7 +15859,7 @@
         <v>22</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>85</v>
@@ -15876,10 +15876,10 @@
     </row>
     <row r="386" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>1124</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>1125</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>11</v>
@@ -15888,7 +15888,7 @@
         <v>17</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>164</v>
@@ -15905,10 +15905,10 @@
     </row>
     <row r="387" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B387" s="2" t="s">
         <v>1126</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>1127</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>11</v>
@@ -15934,10 +15934,10 @@
     </row>
     <row r="388" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B388" s="2" t="s">
         <v>1128</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>1129</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>11</v>
@@ -15963,10 +15963,10 @@
     </row>
     <row r="389" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>1130</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>1131</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>11</v>
@@ -15990,10 +15990,10 @@
     </row>
     <row r="390" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>1133</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>11</v>
@@ -16005,7 +16005,7 @@
         <v>54</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G390" s="4">
         <v>42166</v>
@@ -16019,10 +16019,10 @@
     </row>
     <row r="391" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>11</v>
@@ -16048,10 +16048,10 @@
     </row>
     <row r="392" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B392" s="2" t="s">
         <v>1137</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>1138</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>11</v>
@@ -16060,10 +16060,10 @@
         <v>80</v>
       </c>
       <c r="E392" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F392" s="2" t="s">
         <v>1139</v>
-      </c>
-      <c r="F392" s="2" t="s">
-        <v>1140</v>
       </c>
       <c r="G392" s="4">
         <v>42905</v>
@@ -16077,10 +16077,10 @@
     </row>
     <row r="393" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>11</v>
@@ -16092,7 +16092,7 @@
         <v>616</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G393" s="4">
         <v>42796</v>
@@ -16106,10 +16106,10 @@
     </row>
     <row r="394" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>1144</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>11</v>
@@ -16121,7 +16121,7 @@
         <v>128</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G394" s="4">
         <v>41395</v>
@@ -16135,10 +16135,10 @@
     </row>
     <row r="395" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>1146</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>1147</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>11</v>
@@ -16150,7 +16150,7 @@
         <v>324</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G395" s="4">
         <v>36035</v>
@@ -16164,10 +16164,10 @@
     </row>
     <row r="396" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>1149</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>1150</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>11</v>
@@ -16176,7 +16176,7 @@
         <v>17</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>583</v>
@@ -16193,10 +16193,10 @@
     </row>
     <row r="397" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>1153</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>11</v>
@@ -16205,10 +16205,10 @@
         <v>80</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G397" s="4">
         <v>42814</v>
@@ -16222,10 +16222,10 @@
     </row>
     <row r="398" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B398" s="2" t="s">
         <v>1155</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>1156</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>11</v>
@@ -16234,7 +16234,7 @@
         <v>22</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>85</v>
@@ -16251,10 +16251,10 @@
     </row>
     <row r="399" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>1157</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>1158</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>11</v>
@@ -16280,10 +16280,10 @@
     </row>
     <row r="400" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>1159</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>1160</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>11</v>
@@ -16307,10 +16307,10 @@
     </row>
     <row r="401" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>1162</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>11</v>
@@ -16319,7 +16319,7 @@
         <v>17</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>432</v>
@@ -16336,10 +16336,10 @@
     </row>
     <row r="402" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>1164</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>1165</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>11</v>
@@ -16351,7 +16351,7 @@
         <v>629</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G402" s="4">
         <v>40170</v>
@@ -16365,10 +16365,10 @@
     </row>
     <row r="403" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B403" s="2" t="s">
         <v>1167</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>1168</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>11</v>
@@ -16377,10 +16377,10 @@
         <v>22</v>
       </c>
       <c r="E403" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F403" s="2" t="s">
         <v>1169</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>1170</v>
       </c>
       <c r="G403" s="4">
         <v>40168</v>
@@ -16394,10 +16394,10 @@
     </row>
     <row r="404" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>1171</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>1172</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>11</v>
@@ -16406,7 +16406,7 @@
         <v>17</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>590</v>
@@ -16418,15 +16418,15 @@
         <v>1060391</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>1175</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>11</v>
@@ -16438,7 +16438,7 @@
         <v>210</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G405" s="3"/>
       <c r="H405" s="3">
@@ -16450,10 +16450,10 @@
     </row>
     <row r="406" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>1177</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>11</v>
@@ -16465,7 +16465,7 @@
         <v>137</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G406" s="4">
         <v>42979</v>
@@ -16479,10 +16479,10 @@
     </row>
     <row r="407" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>1179</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>1180</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>11</v>
@@ -16508,10 +16508,10 @@
     </row>
     <row r="408" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>1181</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>1182</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>11</v>
@@ -16535,10 +16535,10 @@
     </row>
     <row r="409" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>1183</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>1184</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>11</v>
@@ -16547,10 +16547,10 @@
         <v>80</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G409" s="4">
         <v>35583</v>
@@ -16564,10 +16564,10 @@
     </row>
     <row r="410" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>1186</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>1187</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>11</v>
@@ -16579,7 +16579,7 @@
         <v>116</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G410" s="4">
         <v>44550</v>
@@ -16593,10 +16593,10 @@
     </row>
     <row r="411" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>1189</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>1190</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>11</v>
@@ -16622,10 +16622,10 @@
     </row>
     <row r="412" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>1191</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>1192</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>11</v>
@@ -16637,7 +16637,7 @@
         <v>100</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G412" s="4">
         <v>23558</v>
@@ -16651,10 +16651,10 @@
     </row>
     <row r="413" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>1193</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>1194</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>11</v>
@@ -16680,10 +16680,10 @@
     </row>
     <row r="414" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>1196</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>11</v>
@@ -16695,7 +16695,7 @@
         <v>277</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G414" s="4">
         <v>39758</v>
@@ -16709,10 +16709,10 @@
     </row>
     <row r="415" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>1198</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>1199</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>11</v>
@@ -16724,7 +16724,7 @@
         <v>247</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G415" s="4">
         <v>23832</v>
@@ -16738,10 +16738,10 @@
     </row>
     <row r="416" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>1201</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>11</v>
@@ -16753,7 +16753,7 @@
         <v>362</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G416" s="4">
         <v>30224</v>
@@ -16767,10 +16767,10 @@
     </row>
     <row r="417" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>1203</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>1204</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>11</v>
@@ -16796,10 +16796,10 @@
     </row>
     <row r="418" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>1205</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>1206</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>11</v>
@@ -16825,10 +16825,10 @@
     </row>
     <row r="419" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>1207</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>1208</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>11</v>
@@ -16854,10 +16854,10 @@
     </row>
     <row r="420" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>1209</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>1210</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>11</v>
@@ -16881,10 +16881,10 @@
     </row>
     <row r="421" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>1211</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>1212</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>11</v>
@@ -16908,10 +16908,10 @@
     </row>
     <row r="422" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>1213</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>1214</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>11</v>
@@ -16937,10 +16937,10 @@
     </row>
     <row r="423" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>1215</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>1216</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>11</v>
@@ -16964,10 +16964,10 @@
     </row>
     <row r="424" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>1217</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>1218</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>11</v>
@@ -16993,10 +16993,10 @@
     </row>
     <row r="425" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>1219</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>1220</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>11</v>
@@ -17008,7 +17008,7 @@
         <v>232</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G425" s="4">
         <v>38534</v>
@@ -17022,10 +17022,10 @@
     </row>
     <row r="426" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B426" s="2" t="s">
         <v>1222</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>1223</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>11</v>
@@ -17037,7 +17037,7 @@
         <v>362</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G426" s="4">
         <v>30224</v>
@@ -17051,10 +17051,10 @@
     </row>
     <row r="427" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>1225</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>1226</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>11</v>
@@ -17066,7 +17066,7 @@
         <v>54</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G427" s="4">
         <v>42075</v>
@@ -17080,10 +17080,10 @@
     </row>
     <row r="428" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>1228</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>1229</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>11</v>
@@ -17109,10 +17109,10 @@
     </row>
     <row r="429" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>1230</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>1231</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>11</v>
@@ -17124,7 +17124,7 @@
         <v>13</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G429" s="4">
         <v>36872</v>
@@ -17138,10 +17138,10 @@
     </row>
     <row r="430" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>1233</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>1234</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>11</v>
@@ -17150,7 +17150,7 @@
         <v>57</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>164</v>
@@ -17167,10 +17167,10 @@
     </row>
     <row r="431" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B431" s="2" t="s">
         <v>1236</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>1237</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>11</v>
@@ -17179,27 +17179,27 @@
         <v>186</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>183</v>
       </c>
       <c r="G431" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H431" s="3">
         <v>732717</v>
       </c>
       <c r="I431" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>1241</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>1242</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>11</v>
@@ -17208,7 +17208,7 @@
         <v>57</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>59</v>
@@ -17220,15 +17220,15 @@
         <v>24545</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B433" s="2" t="s">
         <v>1245</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>1246</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>11</v>
@@ -17240,7 +17240,7 @@
         <v>210</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G433" s="4">
         <v>42524</v>
@@ -17254,10 +17254,10 @@
     </row>
     <row r="434" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>1247</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>1248</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>11</v>
@@ -17283,10 +17283,10 @@
     </row>
     <row r="435" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B435" s="2" t="s">
         <v>1249</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>1250</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>11</v>
@@ -17312,10 +17312,10 @@
     </row>
     <row r="436" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B436" s="2" t="s">
         <v>1251</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>1252</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>11</v>
@@ -17324,10 +17324,10 @@
         <v>27</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G436" s="4">
         <v>40833</v>
@@ -17341,10 +17341,10 @@
     </row>
     <row r="437" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B437" s="2" t="s">
         <v>1253</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>1254</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>11</v>
@@ -17356,7 +17356,7 @@
         <v>116</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G437" s="4">
         <v>44095</v>
@@ -17370,10 +17370,10 @@
     </row>
     <row r="438" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>1257</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>11</v>
@@ -17399,10 +17399,10 @@
     </row>
     <row r="439" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B439" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>1259</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>11</v>
@@ -17414,7 +17414,7 @@
         <v>13</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G439" s="4">
         <v>43483</v>
@@ -17428,10 +17428,10 @@
     </row>
     <row r="440" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B440" s="2" t="s">
         <v>1261</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>1262</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>11</v>
@@ -17443,7 +17443,7 @@
         <v>444</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G440" s="4">
         <v>28125</v>
@@ -17457,10 +17457,10 @@
     </row>
     <row r="441" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>1263</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>1264</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>11</v>
@@ -17469,10 +17469,10 @@
         <v>22</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G441" s="4">
         <v>31320</v>
@@ -17486,10 +17486,10 @@
     </row>
     <row r="442" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>1266</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>1267</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>11</v>
@@ -17501,7 +17501,7 @@
         <v>238</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G442" s="4">
         <v>38202</v>
@@ -17510,15 +17510,15 @@
         <v>97745</v>
       </c>
       <c r="I442" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>1269</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>1270</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>11</v>
@@ -17527,10 +17527,10 @@
         <v>186</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G443" s="4">
         <v>43661</v>
@@ -17544,10 +17544,10 @@
     </row>
     <row r="444" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>1273</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>11</v>
@@ -17556,7 +17556,7 @@
         <v>22</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>85</v>
@@ -17571,10 +17571,10 @@
     </row>
     <row r="445" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B445" s="2" t="s">
         <v>1274</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>1275</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>11</v>
@@ -17583,7 +17583,7 @@
         <v>27</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>621</v>
@@ -17600,10 +17600,10 @@
     </row>
     <row r="446" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B446" s="2" t="s">
         <v>1276</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>1277</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>11</v>
@@ -17627,10 +17627,10 @@
     </row>
     <row r="447" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B447" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>1279</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>11</v>
@@ -17656,10 +17656,10 @@
     </row>
     <row r="448" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B448" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>1281</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>11</v>
@@ -17671,7 +17671,7 @@
         <v>206</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G448" s="4">
         <v>41663</v>
@@ -17685,10 +17685,10 @@
     </row>
     <row r="449" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B449" s="2" t="s">
         <v>1283</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>1284</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>11</v>
@@ -17700,7 +17700,7 @@
         <v>572</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G449" s="4">
         <v>44186</v>
@@ -17714,10 +17714,10 @@
     </row>
     <row r="450" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B450" s="2" t="s">
         <v>1285</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>1286</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>11</v>
@@ -17729,7 +17729,7 @@
         <v>277</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G450" s="4">
         <v>38574</v>
@@ -17743,10 +17743,10 @@
     </row>
     <row r="451" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>1288</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>1289</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>11</v>
@@ -17772,10 +17772,10 @@
     </row>
     <row r="452" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B452" s="2" t="s">
         <v>1290</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>1291</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>11</v>
@@ -17801,10 +17801,10 @@
     </row>
     <row r="453" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B453" s="2" t="s">
         <v>1292</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>1293</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>11</v>
@@ -17830,10 +17830,10 @@
     </row>
     <row r="454" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B454" s="2" t="s">
         <v>1294</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>1295</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>11</v>
@@ -17857,10 +17857,10 @@
     </row>
     <row r="455" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>1296</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>1297</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>11</v>
@@ -17886,10 +17886,10 @@
     </row>
     <row r="456" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>1298</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>1299</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>11</v>
@@ -17901,7 +17901,7 @@
         <v>50</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G456" s="4">
         <v>44004</v>
@@ -17915,10 +17915,10 @@
     </row>
     <row r="457" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B457" s="2" t="s">
         <v>1301</v>
-      </c>
-      <c r="B457" s="2" t="s">
-        <v>1302</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>11</v>
@@ -17927,7 +17927,7 @@
         <v>22</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>314</v>
@@ -17944,10 +17944,10 @@
     </row>
     <row r="458" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B458" s="2" t="s">
         <v>1303</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>1304</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>11</v>
@@ -17956,7 +17956,7 @@
         <v>22</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>314</v>
@@ -17973,10 +17973,10 @@
     </row>
     <row r="459" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B459" s="2" t="s">
         <v>1305</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>1306</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>11</v>
@@ -18002,10 +18002,10 @@
     </row>
     <row r="460" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>11</v>
@@ -18017,7 +18017,7 @@
         <v>191</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G460" s="4">
         <v>42436</v>
@@ -18031,10 +18031,10 @@
     </row>
     <row r="461" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B461" s="2" t="s">
         <v>1309</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>1310</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>11</v>
@@ -18046,7 +18046,7 @@
         <v>496</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G461" s="4">
         <v>41902</v>
@@ -18060,10 +18060,10 @@
     </row>
     <row r="462" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B462" s="2" t="s">
         <v>1312</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>1313</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>11</v>
@@ -18075,7 +18075,7 @@
         <v>206</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G462" s="4">
         <v>42478</v>
@@ -18089,10 +18089,10 @@
     </row>
     <row r="463" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B463" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>1316</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>11</v>
@@ -18104,7 +18104,7 @@
         <v>150</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G463" s="4">
         <v>34516</v>
@@ -18118,10 +18118,10 @@
     </row>
     <row r="464" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B464" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>1319</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>11</v>
@@ -18147,10 +18147,10 @@
     </row>
     <row r="465" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>1320</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>1321</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>11</v>
@@ -18162,7 +18162,7 @@
         <v>332</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G465" s="4">
         <v>37459</v>
@@ -18176,10 +18176,10 @@
     </row>
     <row r="466" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B466" s="2" t="s">
         <v>1323</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>1324</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>11</v>
@@ -18188,7 +18188,7 @@
         <v>17</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>337</v>
@@ -18205,10 +18205,10 @@
     </row>
     <row r="467" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B467" s="2" t="s">
         <v>1326</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>1327</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>11</v>
@@ -18232,10 +18232,10 @@
     </row>
     <row r="468" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>1328</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>1329</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>11</v>
@@ -18261,10 +18261,10 @@
     </row>
     <row r="469" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B469" s="2" t="s">
         <v>1330</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>1331</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>11</v>
@@ -18273,7 +18273,7 @@
         <v>22</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>497</v>
@@ -18290,10 +18290,10 @@
     </row>
     <row r="470" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>1332</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>1333</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>11</v>
@@ -18312,15 +18312,15 @@
         <v>813828</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="471" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B471" s="2" t="s">
         <v>1335</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>1336</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>11</v>
@@ -18329,10 +18329,10 @@
         <v>162</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G471" s="3"/>
       <c r="H471" s="3">
@@ -18344,10 +18344,10 @@
     </row>
     <row r="472" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>1338</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>1339</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>11</v>
@@ -18356,10 +18356,10 @@
         <v>99</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G472" s="4">
         <v>36341</v>
@@ -18373,10 +18373,10 @@
     </row>
     <row r="473" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B473" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>1341</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>11</v>
@@ -18400,10 +18400,10 @@
     </row>
     <row r="474" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>1342</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>1343</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>11</v>
@@ -18415,7 +18415,7 @@
         <v>518</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G474" s="4">
         <v>42285</v>
@@ -18429,10 +18429,10 @@
     </row>
     <row r="475" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B475" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>1345</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>11</v>
@@ -18444,7 +18444,7 @@
         <v>95</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G475" s="4">
         <v>38749</v>
@@ -18458,10 +18458,10 @@
     </row>
     <row r="476" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B476" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>1348</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>11</v>
@@ -18487,10 +18487,10 @@
     </row>
     <row r="477" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B477" s="2" t="s">
         <v>1349</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>1350</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>11</v>
@@ -18499,7 +18499,7 @@
         <v>136</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>59</v>
@@ -18516,10 +18516,10 @@
     </row>
     <row r="478" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B478" s="2" t="s">
         <v>1351</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>1352</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>11</v>
@@ -18531,7 +18531,7 @@
         <v>32</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G478" s="4">
         <v>38100</v>
@@ -18545,10 +18545,10 @@
     </row>
     <row r="479" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B479" s="2" t="s">
         <v>1353</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>1354</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>11</v>
@@ -18557,7 +18557,7 @@
         <v>186</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>85</v>
@@ -18569,15 +18569,15 @@
         <v>732712</v>
       </c>
       <c r="I479" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="480" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B480" s="2" t="s">
         <v>1355</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>1356</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>11</v>
@@ -18589,7 +18589,7 @@
         <v>287</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G480" s="4">
         <v>43523</v>
@@ -18598,15 +18598,15 @@
         <v>943452</v>
       </c>
       <c r="I480" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B481" s="2" t="s">
         <v>1358</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>1359</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>11</v>
@@ -18618,7 +18618,7 @@
         <v>37</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G481" s="3"/>
       <c r="H481" s="3">
@@ -18630,10 +18630,10 @@
     </row>
     <row r="482" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B482" s="2" t="s">
         <v>1361</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>1362</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>11</v>
@@ -18642,7 +18642,7 @@
         <v>57</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>217</v>
@@ -18659,10 +18659,10 @@
     </row>
     <row r="483" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B483" s="2" t="s">
         <v>1364</v>
-      </c>
-      <c r="B483" s="2" t="s">
-        <v>1365</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>11</v>
@@ -18688,10 +18688,10 @@
     </row>
     <row r="484" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B484" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>1367</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>11</v>
@@ -18717,10 +18717,10 @@
     </row>
     <row r="485" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B485" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>1369</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>11</v>
@@ -18729,10 +18729,10 @@
         <v>136</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G485" s="4">
         <v>39843</v>
@@ -18746,10 +18746,10 @@
     </row>
     <row r="486" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B486" s="2" t="s">
         <v>1371</v>
-      </c>
-      <c r="B486" s="2" t="s">
-        <v>1372</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>11</v>
@@ -18775,10 +18775,10 @@
     </row>
     <row r="487" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B487" s="2" t="s">
         <v>1373</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>1374</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>11</v>
@@ -18787,10 +18787,10 @@
         <v>22</v>
       </c>
       <c r="E487" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F487" s="2" t="s">
         <v>1375</v>
-      </c>
-      <c r="F487" s="2" t="s">
-        <v>1376</v>
       </c>
       <c r="G487" s="3"/>
       <c r="H487" s="3">
@@ -18802,10 +18802,10 @@
     </row>
     <row r="488" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B488" s="2" t="s">
         <v>1377</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>1378</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>11</v>
@@ -18814,7 +18814,7 @@
         <v>17</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>164</v>
@@ -18829,10 +18829,10 @@
     </row>
     <row r="489" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B489" s="2" t="s">
         <v>1379</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>1380</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>11</v>
@@ -18841,10 +18841,10 @@
         <v>162</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G489" s="4">
         <v>27484</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="490" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B490" s="2" t="s">
         <v>1381</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>1382</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>11</v>
@@ -18873,7 +18873,7 @@
         <v>381</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G490" s="4">
         <v>30194</v>
@@ -18887,10 +18887,10 @@
     </row>
     <row r="491" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B491" s="2" t="s">
         <v>1384</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>1385</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>11</v>
@@ -18902,7 +18902,7 @@
         <v>84</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G491" s="4">
         <v>43804</v>
@@ -18916,10 +18916,10 @@
     </row>
     <row r="492" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B492" s="2" t="s">
         <v>1387</v>
-      </c>
-      <c r="B492" s="2" t="s">
-        <v>1388</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>11</v>
@@ -18943,10 +18943,10 @@
     </row>
     <row r="493" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B493" s="2" t="s">
         <v>1389</v>
-      </c>
-      <c r="B493" s="2" t="s">
-        <v>1390</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>11</v>
@@ -18958,7 +18958,7 @@
         <v>104</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G493" s="4">
         <v>43973</v>
@@ -18972,10 +18972,10 @@
     </row>
     <row r="494" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B494" s="2" t="s">
         <v>1392</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>1393</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>11</v>
@@ -18987,7 +18987,7 @@
         <v>91</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G494" s="4">
         <v>42374</v>
@@ -19001,10 +19001,10 @@
     </row>
     <row r="495" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B495" s="2" t="s">
         <v>1394</v>
-      </c>
-      <c r="B495" s="2" t="s">
-        <v>1395</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>11</v>
@@ -19028,10 +19028,10 @@
     </row>
     <row r="496" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B496" s="2" t="s">
         <v>1396</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>1397</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>11</v>
@@ -19043,7 +19043,7 @@
         <v>425</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G496" s="4">
         <v>39766</v>
@@ -19057,10 +19057,10 @@
     </row>
     <row r="497" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B497" s="2" t="s">
         <v>1398</v>
-      </c>
-      <c r="B497" s="2" t="s">
-        <v>1399</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>11</v>
@@ -19086,10 +19086,10 @@
     </row>
     <row r="498" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B498" s="2" t="s">
         <v>1400</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>1401</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>11</v>
@@ -19115,10 +19115,10 @@
     </row>
     <row r="499" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B499" s="2" t="s">
         <v>1402</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>1403</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>11</v>
@@ -19139,15 +19139,15 @@
         <v>818479</v>
       </c>
       <c r="I499" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="500" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B500" s="2" t="s">
         <v>1405</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>1406</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>11</v>
@@ -19159,7 +19159,7 @@
         <v>362</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G500" s="4">
         <v>40848</v>
@@ -19173,10 +19173,10 @@
     </row>
     <row r="501" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B501" s="2" t="s">
         <v>1408</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>1409</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>11</v>
@@ -19202,10 +19202,10 @@
     </row>
     <row r="502" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B502" s="2" t="s">
         <v>1410</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>1411</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>11</v>
@@ -19217,7 +19217,7 @@
         <v>13</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G502" s="4">
         <v>37110</v>
@@ -19231,10 +19231,10 @@
     </row>
     <row r="503" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B503" s="2" t="s">
         <v>1413</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>1414</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>11</v>
@@ -19243,7 +19243,7 @@
         <v>27</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>308</v>
@@ -19260,10 +19260,10 @@
     </row>
     <row r="504" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B504" s="2" t="s">
         <v>1415</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>1416</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>11</v>
@@ -19289,10 +19289,10 @@
     </row>
     <row r="505" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B505" s="2" t="s">
         <v>1417</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>1418</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>11</v>
@@ -19304,7 +19304,7 @@
         <v>32</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G505" s="4">
         <v>41446</v>
